--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/C3-Cd46.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/C3-Cd46.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.558564</v>
+        <v>1.468507333333333</v>
       </c>
       <c r="H2">
-        <v>4.675692</v>
+        <v>4.405521999999999</v>
       </c>
       <c r="I2">
-        <v>0.005692101168584756</v>
+        <v>0.005118279455112885</v>
       </c>
       <c r="J2">
-        <v>0.005692101168584756</v>
+        <v>0.005118279455112885</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.397242000000001</v>
+        <v>5.483544666666667</v>
       </c>
       <c r="N2">
-        <v>16.191726</v>
+        <v>16.450634</v>
       </c>
       <c r="O2">
-        <v>0.4331003391330406</v>
+        <v>0.4099269772514247</v>
       </c>
       <c r="P2">
-        <v>0.4331003391330406</v>
+        <v>0.4099269772514247</v>
       </c>
       <c r="Q2">
-        <v>8.411947080488002</v>
+        <v>8.052625555660889</v>
       </c>
       <c r="R2">
-        <v>75.707523724392</v>
+        <v>72.47363000094799</v>
       </c>
       <c r="S2">
-        <v>0.002465250946493634</v>
+        <v>0.002098120825762494</v>
       </c>
       <c r="T2">
-        <v>0.002465250946493634</v>
+        <v>0.002098120825762494</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.558564</v>
+        <v>1.468507333333333</v>
       </c>
       <c r="H3">
-        <v>4.675692</v>
+        <v>4.405521999999999</v>
       </c>
       <c r="I3">
-        <v>0.005692101168584756</v>
+        <v>0.005118279455112885</v>
       </c>
       <c r="J3">
-        <v>0.005692101168584756</v>
+        <v>0.005118279455112885</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>13.118937</v>
       </c>
       <c r="O3">
-        <v>0.3509086099755513</v>
+        <v>0.32690571008764</v>
       </c>
       <c r="P3">
-        <v>0.3509086099755513</v>
+        <v>0.32690571008764</v>
       </c>
       <c r="Q3">
-        <v>6.815567642155999</v>
+        <v>6.421751730012666</v>
       </c>
       <c r="R3">
-        <v>61.340108779404</v>
+        <v>57.79576557011399</v>
       </c>
       <c r="S3">
-        <v>0.001997407308908288</v>
+        <v>0.001673194779700656</v>
       </c>
       <c r="T3">
-        <v>0.001997407308908288</v>
+        <v>0.001673194779700656</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.558564</v>
+        <v>1.468507333333333</v>
       </c>
       <c r="H4">
-        <v>4.675692</v>
+        <v>4.405521999999999</v>
       </c>
       <c r="I4">
-        <v>0.005692101168584756</v>
+        <v>0.005118279455112885</v>
       </c>
       <c r="J4">
-        <v>0.005692101168584756</v>
+        <v>0.005118279455112885</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.092643333333333</v>
+        <v>2.750327</v>
       </c>
       <c r="N4">
-        <v>6.27793</v>
+        <v>8.250980999999999</v>
       </c>
       <c r="O4">
-        <v>0.1679236427329297</v>
+        <v>0.2056029999019452</v>
       </c>
       <c r="P4">
-        <v>0.1679236427329297</v>
+        <v>0.2056029999019452</v>
       </c>
       <c r="Q4">
-        <v>3.261518564173333</v>
+        <v>4.038875368564666</v>
       </c>
       <c r="R4">
-        <v>29.35366707756</v>
+        <v>36.34987831708199</v>
       </c>
       <c r="S4">
-        <v>0.0009558383630331182</v>
+        <v>0.001052333610307703</v>
       </c>
       <c r="T4">
-        <v>0.0009558383630331182</v>
+        <v>0.001052333610307703</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.558564</v>
+        <v>1.468507333333333</v>
       </c>
       <c r="H5">
-        <v>4.675692</v>
+        <v>4.405521999999999</v>
       </c>
       <c r="I5">
-        <v>0.005692101168584756</v>
+        <v>0.005118279455112885</v>
       </c>
       <c r="J5">
-        <v>0.005692101168584756</v>
+        <v>0.005118279455112885</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5990099999999999</v>
+        <v>0.770031</v>
       </c>
       <c r="N5">
-        <v>1.79703</v>
+        <v>2.310093</v>
       </c>
       <c r="O5">
-        <v>0.04806740815847845</v>
+        <v>0.05756431275899004</v>
       </c>
       <c r="P5">
-        <v>0.04806740815847846</v>
+        <v>0.05756431275899004</v>
       </c>
       <c r="Q5">
-        <v>0.9335954216399998</v>
+        <v>1.130796170394</v>
       </c>
       <c r="R5">
-        <v>8.40235879476</v>
+        <v>10.177165533546</v>
       </c>
       <c r="S5">
-        <v>0.0002736045501497157</v>
+        <v>0.0002946302393420313</v>
       </c>
       <c r="T5">
-        <v>0.0002736045501497157</v>
+        <v>0.0002946302393420313</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>778.6517180000001</v>
       </c>
       <c r="I6">
-        <v>0.9479162344201305</v>
+        <v>0.9046276674881553</v>
       </c>
       <c r="J6">
-        <v>0.9479162344201304</v>
+        <v>0.9046276674881553</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.397242000000001</v>
+        <v>5.483544666666667</v>
       </c>
       <c r="N6">
-        <v>16.191726</v>
+        <v>16.450634</v>
       </c>
       <c r="O6">
-        <v>0.4331003391330406</v>
+        <v>0.4099269772514247</v>
       </c>
       <c r="P6">
-        <v>0.4331003391330406</v>
+        <v>0.4099269772514247</v>
       </c>
       <c r="Q6">
-        <v>1400.857251920586</v>
+        <v>1423.257158476579</v>
       </c>
       <c r="R6">
-        <v>12607.71526728527</v>
+        <v>12809.31442628921</v>
       </c>
       <c r="S6">
-        <v>0.4105428425970733</v>
+        <v>0.3708312852714264</v>
       </c>
       <c r="T6">
-        <v>0.4105428425970732</v>
+        <v>0.3708312852714264</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>778.6517180000001</v>
       </c>
       <c r="I7">
-        <v>0.9479162344201305</v>
+        <v>0.9046276674881553</v>
       </c>
       <c r="J7">
-        <v>0.9479162344201304</v>
+        <v>0.9046276674881553</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>13.118937</v>
       </c>
       <c r="O7">
-        <v>0.3509086099755513</v>
+        <v>0.32690571008764</v>
       </c>
       <c r="P7">
-        <v>0.3509086099755513</v>
+        <v>0.32690571008764</v>
       </c>
       <c r="Q7">
         <v>1135.009203709307</v>
@@ -883,10 +883,10 @@
         <v>10215.08283338377</v>
       </c>
       <c r="S7">
-        <v>0.3326319681936268</v>
+        <v>0.2957279500051408</v>
       </c>
       <c r="T7">
-        <v>0.3326319681936268</v>
+        <v>0.2957279500051408</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>778.6517180000001</v>
       </c>
       <c r="I8">
-        <v>0.9479162344201305</v>
+        <v>0.9046276674881553</v>
       </c>
       <c r="J8">
-        <v>0.9479162344201304</v>
+        <v>0.9046276674881553</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.092643333333333</v>
+        <v>2.750327</v>
       </c>
       <c r="N8">
-        <v>6.27793</v>
+        <v>8.250980999999999</v>
       </c>
       <c r="O8">
-        <v>0.1679236427329297</v>
+        <v>0.2056029999019452</v>
       </c>
       <c r="P8">
-        <v>0.1679236427329297</v>
+        <v>0.2056029999019452</v>
       </c>
       <c r="Q8">
-        <v>543.146775553749</v>
+        <v>713.8489478705955</v>
       </c>
       <c r="R8">
-        <v>4888.32097998374</v>
+        <v>6424.640530835358</v>
       </c>
       <c r="S8">
-        <v>0.15917754708951</v>
+        <v>0.1859941622298641</v>
       </c>
       <c r="T8">
-        <v>0.15917754708951</v>
+        <v>0.1859941622298641</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>778.6517180000001</v>
       </c>
       <c r="I9">
-        <v>0.9479162344201305</v>
+        <v>0.9046276674881553</v>
       </c>
       <c r="J9">
-        <v>0.9479162344201304</v>
+        <v>0.9046276674881553</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.5990099999999999</v>
+        <v>0.770031</v>
       </c>
       <c r="N9">
-        <v>1.79703</v>
+        <v>2.310093</v>
       </c>
       <c r="O9">
-        <v>0.04806740815847845</v>
+        <v>0.05756431275899004</v>
       </c>
       <c r="P9">
-        <v>0.04806740815847846</v>
+        <v>0.05756431275899004</v>
       </c>
       <c r="Q9">
-        <v>155.47338853306</v>
+        <v>199.861987021086</v>
       </c>
       <c r="R9">
-        <v>1399.26049679754</v>
+        <v>1798.757883189774</v>
       </c>
       <c r="S9">
-        <v>0.04556387653992035</v>
+        <v>0.05207426998172382</v>
       </c>
       <c r="T9">
-        <v>0.04556387653992035</v>
+        <v>0.05207426998172382</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5133286666666667</v>
+        <v>0.5890733333333333</v>
       </c>
       <c r="H10">
-        <v>1.539986</v>
+        <v>1.76722</v>
       </c>
       <c r="I10">
-        <v>0.001874750541781658</v>
+        <v>0.002053133730501083</v>
       </c>
       <c r="J10">
-        <v>0.001874750541781658</v>
+        <v>0.002053133730501083</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.397242000000001</v>
+        <v>5.483544666666667</v>
       </c>
       <c r="N10">
-        <v>16.191726</v>
+        <v>16.450634</v>
       </c>
       <c r="O10">
-        <v>0.4331003391330406</v>
+        <v>0.4099269772514247</v>
       </c>
       <c r="P10">
-        <v>0.4331003391330406</v>
+        <v>0.4099269772514247</v>
       </c>
       <c r="Q10">
-        <v>2.770559039537334</v>
+        <v>3.230209935275556</v>
       </c>
       <c r="R10">
-        <v>24.935031355836</v>
+        <v>29.07188941748</v>
       </c>
       <c r="S10">
-        <v>0.0008119550954354877</v>
+        <v>0.0008416349040372502</v>
       </c>
       <c r="T10">
-        <v>0.0008119550954354876</v>
+        <v>0.0008416349040372502</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.5133286666666667</v>
+        <v>0.5890733333333333</v>
       </c>
       <c r="H11">
-        <v>1.539986</v>
+        <v>1.76722</v>
       </c>
       <c r="I11">
-        <v>0.001874750541781658</v>
+        <v>0.002053133730501083</v>
       </c>
       <c r="J11">
-        <v>0.001874750541781658</v>
+        <v>0.002053133730501083</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>13.118937</v>
       </c>
       <c r="O11">
-        <v>0.3509086099755513</v>
+        <v>0.32690571008764</v>
       </c>
       <c r="P11">
-        <v>0.3509086099755513</v>
+        <v>0.32690571008764</v>
       </c>
       <c r="Q11">
-        <v>2.244775479431333</v>
+        <v>2.576005316126667</v>
       </c>
       <c r="R11">
-        <v>20.202979314882</v>
+        <v>23.18404784514</v>
       </c>
       <c r="S11">
-        <v>0.0006578661066675134</v>
+        <v>0.0006711811400743419</v>
       </c>
       <c r="T11">
-        <v>0.0006578661066675133</v>
+        <v>0.0006711811400743419</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.5133286666666667</v>
+        <v>0.5890733333333333</v>
       </c>
       <c r="H12">
-        <v>1.539986</v>
+        <v>1.76722</v>
       </c>
       <c r="I12">
-        <v>0.001874750541781658</v>
+        <v>0.002053133730501083</v>
       </c>
       <c r="J12">
-        <v>0.001874750541781658</v>
+        <v>0.002053133730501083</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.092643333333333</v>
+        <v>2.750327</v>
       </c>
       <c r="N12">
-        <v>6.27793</v>
+        <v>8.250980999999999</v>
       </c>
       <c r="O12">
-        <v>0.1679236427329297</v>
+        <v>0.2056029999019452</v>
       </c>
       <c r="P12">
-        <v>0.1679236427329297</v>
+        <v>0.2056029999019452</v>
       </c>
       <c r="Q12">
-        <v>1.074213812108889</v>
+        <v>1.620144293646667</v>
       </c>
       <c r="R12">
-        <v>9.667924308979998</v>
+        <v>14.58129864282</v>
       </c>
       <c r="S12">
-        <v>0.0003148149401915096</v>
+        <v>0.0004221304541908947</v>
       </c>
       <c r="T12">
-        <v>0.0003148149401915095</v>
+        <v>0.0004221304541908947</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.5133286666666667</v>
+        <v>0.5890733333333333</v>
       </c>
       <c r="H13">
-        <v>1.539986</v>
+        <v>1.76722</v>
       </c>
       <c r="I13">
-        <v>0.001874750541781658</v>
+        <v>0.002053133730501083</v>
       </c>
       <c r="J13">
-        <v>0.001874750541781658</v>
+        <v>0.002053133730501083</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.5990099999999999</v>
+        <v>0.770031</v>
       </c>
       <c r="N13">
-        <v>1.79703</v>
+        <v>2.310093</v>
       </c>
       <c r="O13">
-        <v>0.04806740815847845</v>
+        <v>0.05756431275899004</v>
       </c>
       <c r="P13">
-        <v>0.04806740815847846</v>
+        <v>0.05756431275899004</v>
       </c>
       <c r="Q13">
-        <v>0.30748900462</v>
+        <v>0.45360472794</v>
       </c>
       <c r="R13">
-        <v>2.767401041579999</v>
+        <v>4.082442551460001</v>
       </c>
       <c r="S13">
-        <v>9.011439948714757E-05</v>
+        <v>0.0001181872321985963</v>
       </c>
       <c r="T13">
-        <v>9.011439948714757E-05</v>
+        <v>0.0001181872321985963</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>12.18925266666667</v>
+        <v>25.306101</v>
       </c>
       <c r="H14">
-        <v>36.567758</v>
+        <v>75.91830299999999</v>
       </c>
       <c r="I14">
-        <v>0.04451691386950307</v>
+        <v>0.0882009193262308</v>
       </c>
       <c r="J14">
-        <v>0.04451691386950307</v>
+        <v>0.0882009193262308</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.397242000000001</v>
+        <v>5.483544666666667</v>
       </c>
       <c r="N14">
-        <v>16.191726</v>
+        <v>16.450634</v>
       </c>
       <c r="O14">
-        <v>0.4331003391330406</v>
+        <v>0.4099269772514247</v>
       </c>
       <c r="P14">
-        <v>0.4331003391330406</v>
+        <v>0.4099269772514247</v>
       </c>
       <c r="Q14">
-        <v>65.78834644114535</v>
+        <v>138.767135172678</v>
       </c>
       <c r="R14">
-        <v>592.095117970308</v>
+        <v>1248.904216554102</v>
       </c>
       <c r="S14">
-        <v>0.01928029049403814</v>
+        <v>0.03615593625019856</v>
       </c>
       <c r="T14">
-        <v>0.01928029049403814</v>
+        <v>0.03615593625019856</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>12.18925266666667</v>
+        <v>25.306101</v>
       </c>
       <c r="H15">
-        <v>36.567758</v>
+        <v>75.91830299999999</v>
       </c>
       <c r="I15">
-        <v>0.04451691386950307</v>
+        <v>0.0882009193262308</v>
       </c>
       <c r="J15">
-        <v>0.04451691386950307</v>
+        <v>0.0882009193262308</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>13.118937</v>
       </c>
       <c r="O15">
-        <v>0.3509086099755513</v>
+        <v>0.32690571008764</v>
       </c>
       <c r="P15">
-        <v>0.3509086099755513</v>
+        <v>0.32690571008764</v>
       </c>
       <c r="Q15">
-        <v>53.30334593702733</v>
+        <v>110.663048244879</v>
       </c>
       <c r="R15">
-        <v>479.730113433246</v>
+        <v>995.9674342039109</v>
       </c>
       <c r="S15">
-        <v>0.01562136836634866</v>
+        <v>0.02883338416272413</v>
       </c>
       <c r="T15">
-        <v>0.01562136836634866</v>
+        <v>0.02883338416272413</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>12.18925266666667</v>
+        <v>25.306101</v>
       </c>
       <c r="H16">
-        <v>36.567758</v>
+        <v>75.91830299999999</v>
       </c>
       <c r="I16">
-        <v>0.04451691386950307</v>
+        <v>0.0882009193262308</v>
       </c>
       <c r="J16">
-        <v>0.04451691386950307</v>
+        <v>0.0882009193262308</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.092643333333333</v>
+        <v>2.750327</v>
       </c>
       <c r="N16">
-        <v>6.27793</v>
+        <v>8.250980999999999</v>
       </c>
       <c r="O16">
-        <v>0.1679236427329297</v>
+        <v>0.2056029999019452</v>
       </c>
       <c r="P16">
-        <v>0.1679236427329297</v>
+        <v>0.2056029999019452</v>
       </c>
       <c r="Q16">
-        <v>25.50775833121555</v>
+        <v>69.60005284502699</v>
       </c>
       <c r="R16">
-        <v>229.56982498094</v>
+        <v>626.4004756052429</v>
       </c>
       <c r="S16">
-        <v>0.007475442340195037</v>
+        <v>0.01813437360758251</v>
       </c>
       <c r="T16">
-        <v>0.007475442340195037</v>
+        <v>0.01813437360758251</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>12.18925266666667</v>
+        <v>25.306101</v>
       </c>
       <c r="H17">
-        <v>36.567758</v>
+        <v>75.91830299999999</v>
       </c>
       <c r="I17">
-        <v>0.04451691386950307</v>
+        <v>0.0882009193262308</v>
       </c>
       <c r="J17">
-        <v>0.04451691386950307</v>
+        <v>0.0882009193262308</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.5990099999999999</v>
+        <v>0.770031</v>
       </c>
       <c r="N17">
-        <v>1.79703</v>
+        <v>2.310093</v>
       </c>
       <c r="O17">
-        <v>0.04806740815847845</v>
+        <v>0.05756431275899004</v>
       </c>
       <c r="P17">
-        <v>0.04806740815847846</v>
+        <v>0.05756431275899004</v>
       </c>
       <c r="Q17">
-        <v>7.301484239859999</v>
+        <v>19.486482259131</v>
       </c>
       <c r="R17">
-        <v>65.71335815873999</v>
+        <v>175.378340332179</v>
       </c>
       <c r="S17">
-        <v>0.002139812668921234</v>
+        <v>0.005077225305725599</v>
       </c>
       <c r="T17">
-        <v>0.002139812668921235</v>
+        <v>0.005077225305725599</v>
       </c>
     </row>
   </sheetData>
